--- a/大作业项目/新冠疫情社区管理系统/核酸阳性名单.xlsx
+++ b/大作业项目/新冠疫情社区管理系统/核酸阳性名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>单元</t>
   </si>
@@ -43,10 +43,22 @@
     <t>刘幂</t>
   </si>
   <si>
+    <t>水草</t>
+  </si>
+  <si>
+    <t>王西宁</t>
+  </si>
+  <si>
     <t>1单元</t>
   </si>
   <si>
     <t>2单元</t>
+  </si>
+  <si>
+    <t>3单元</t>
+  </si>
+  <si>
+    <t>4单元</t>
   </si>
   <si>
     <t>2栋</t>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +456,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2262414</v>
@@ -464,16 +476,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>63635234</v>
@@ -484,19 +496,59 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>77755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>363636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
